--- a/src/tournament/schedules/pool_B/schedule_aller.xlsx
+++ b/src/tournament/schedules/pool_B/schedule_aller.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,12 +38,8 @@
     <font>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <i val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -68,12 +64,6 @@
         <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -93,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -108,12 +98,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -481,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +476,10 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -970,83 +954,85 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>PAUSE</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="n">
         <v>45647.8</v>
       </c>
-      <c r="C16" s="7" t="n">
-        <v>45647.80694444444</v>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>PAUSE ENTRE PHASES</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr"/>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>10min 0s</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>PAUSE</t>
+      <c r="C16" s="5" t="n">
+        <v>45647.80208333334</v>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Mind Misters</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>45647.80694444444</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>45647.80902777778</v>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Blacknight01</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Mind Misters</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>45647.80208333334</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>45647.80416666667</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>BOÏZ</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Les sisters</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>45647.80208333334</v>
+        <v>45647.80416666667</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>45647.80416666667</v>
+        <v>45647.80625</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>BOÏZ</t>
+          <t>Limitless Nexus</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Les sisters</t>
+          <t>Mugiwara</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1056,28 +1042,28 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>45647.80416666667</v>
+        <v>45647.80625</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>45647.80625</v>
+        <v>45647.80833333333</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Limitless Nexus</t>
+          <t>Eriatech</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Mugiwara</t>
+          <t>Les sisters</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1087,28 +1073,28 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>45647.80625</v>
+        <v>45647.80833333333</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>45647.80833333333</v>
+        <v>45647.81041666667</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Eriatech</t>
+          <t>Blacknight01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Les sisters</t>
+          <t>BOÏZ</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1118,28 +1104,28 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>45647.80833333333</v>
+        <v>45647.81041666667</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>45647.81041666667</v>
+        <v>45647.8125</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Blacknight01</t>
+          <t>AIverse</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>BOÏZ</t>
+          <t>Limitless Nexus</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1149,28 +1135,28 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>45647.81041666667</v>
+        <v>45647.8125</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>45647.8125</v>
+        <v>45647.81458333333</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>AIverse</t>
+          <t>Les sisters</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Limitless Nexus</t>
+          <t>Mugiwara</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1180,28 +1166,28 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>45647.8125</v>
+        <v>45647.81458333333</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>45647.81458333333</v>
+        <v>45647.81666666667</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Les sisters</t>
+          <t>BOÏZ</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Mugiwara</t>
+          <t>Eriatech</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1211,28 +1197,28 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>45647.81458333333</v>
+        <v>45647.81666666667</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>45647.81666666667</v>
+        <v>45647.81875</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>BOÏZ</t>
+          <t>Blacknight01</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Eriatech</t>
+          <t>Limitless Nexus</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1242,28 +1228,28 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>45647.81666666667</v>
+        <v>45647.81875</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>45647.81875</v>
+        <v>45647.82083333333</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Blacknight01</t>
+          <t>AIverse</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Limitless Nexus</t>
+          <t>Mugiwara</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1273,19 +1259,19 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>45647.81875</v>
+        <v>45647.82083333333</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>45647.82083333333</v>
+        <v>45647.82291666666</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
@@ -1294,7 +1280,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Mugiwara</t>
+          <t>Les sisters</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1304,28 +1290,28 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>45647.82083333333</v>
+        <v>45647.82291666666</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>45647.82291666666</v>
+        <v>45647.825</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>AIverse</t>
+          <t>Eriatech</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Les sisters</t>
+          <t>Limitless Nexus</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1335,28 +1321,28 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>45647.82291666666</v>
+        <v>45647.825</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>45647.825</v>
+        <v>45647.82708333333</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Eriatech</t>
+          <t>AIverse</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Limitless Nexus</t>
+          <t>BOÏZ</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1366,28 +1352,28 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>45647.825</v>
+        <v>45647.82708333333</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>45647.82708333333</v>
+        <v>45647.82916666667</v>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>AIverse</t>
+          <t>Eriatech</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>BOÏZ</t>
+          <t>Mugiwara</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -1397,38 +1383,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>45647.82708333333</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>45647.82916666667</v>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Mugiwara</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
+          <t>ALLER</t>
         </is>
       </c>
     </row>

--- a/src/tournament/schedules/pool_B/schedule_aller.xlsx
+++ b/src/tournament/schedules/pool_B/schedule_aller.xlsx
@@ -524,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45647.77083333334</v>
+        <v>45647.875</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45647.77291666667</v>
+        <v>45647.87708333333</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45647.77291666667</v>
+        <v>45647.87708333333</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45647.775</v>
+        <v>45647.87916666667</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
@@ -586,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>45647.775</v>
+        <v>45647.87916666667</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>45647.77708333333</v>
+        <v>45647.88125</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -617,10 +617,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>45647.77708333333</v>
+        <v>45647.88125</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45647.77916666667</v>
+        <v>45647.88333333333</v>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>45647.77916666667</v>
+        <v>45647.88333333333</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>45647.78125</v>
+        <v>45647.88541666666</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>45647.78125</v>
+        <v>45647.88541666666</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45647.78333333333</v>
+        <v>45647.8875</v>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
@@ -710,10 +710,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>45647.78333333333</v>
+        <v>45647.8875</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>45647.78541666667</v>
+        <v>45647.88958333333</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45647.78541666667</v>
+        <v>45647.88958333333</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45647.7875</v>
+        <v>45647.89166666667</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
@@ -772,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>45647.7875</v>
+        <v>45647.89166666667</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>45647.78958333333</v>
+        <v>45647.89375</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45647.78958333333</v>
+        <v>45647.89375</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45647.79166666666</v>
+        <v>45647.89583333334</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>45647.79166666666</v>
+        <v>45647.89583333334</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>45647.79375</v>
+        <v>45647.89791666667</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
@@ -865,10 +865,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>45647.79375</v>
+        <v>45647.89791666667</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45647.79583333333</v>
+        <v>45647.9</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>45647.79583333333</v>
+        <v>45647.9</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>45647.79791666667</v>
+        <v>45647.90208333333</v>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
@@ -927,10 +927,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>45647.79791666667</v>
+        <v>45647.90208333333</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>45647.8</v>
+        <v>45647.90416666667</v>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>45647.8</v>
+        <v>45647.90416666667</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45647.80208333334</v>
+        <v>45647.90625</v>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
@@ -989,10 +989,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>45647.80208333334</v>
+        <v>45647.90625</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>45647.80416666667</v>
+        <v>45647.90833333333</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
@@ -1020,10 +1020,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>45647.80416666667</v>
+        <v>45647.90833333333</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>45647.80625</v>
+        <v>45647.91041666667</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -1051,10 +1051,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>45647.80625</v>
+        <v>45647.91041666667</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>45647.80833333333</v>
+        <v>45647.9125</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
@@ -1082,10 +1082,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>45647.80833333333</v>
+        <v>45647.9125</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>45647.81041666667</v>
+        <v>45647.91458333333</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>45647.81041666667</v>
+        <v>45647.91458333333</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>45647.8125</v>
+        <v>45647.91666666666</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>45647.8125</v>
+        <v>45647.91666666666</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>45647.81458333333</v>
+        <v>45647.91875</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>45647.81458333333</v>
+        <v>45647.91875</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>45647.81666666667</v>
+        <v>45647.92083333333</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>45647.81666666667</v>
+        <v>45647.92083333333</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>45647.81875</v>
+        <v>45647.92291666667</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
@@ -1237,10 +1237,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>45647.81875</v>
+        <v>45647.92291666667</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>45647.82083333333</v>
+        <v>45647.925</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>45647.82083333333</v>
+        <v>45647.925</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>45647.82291666666</v>
+        <v>45647.92708333334</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>45647.82291666666</v>
+        <v>45647.92708333334</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>45647.825</v>
+        <v>45647.92916666667</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
@@ -1330,10 +1330,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>45647.825</v>
+        <v>45647.92916666667</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>45647.82708333333</v>
+        <v>45647.93125</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
@@ -1361,10 +1361,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>45647.82708333333</v>
+        <v>45647.93125</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>45647.82916666667</v>
+        <v>45647.93333333333</v>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>

--- a/src/tournament/schedules/pool_B/schedule_aller.xlsx
+++ b/src/tournament/schedules/pool_B/schedule_aller.xlsx
@@ -32,6 +32,7 @@
       <b val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
@@ -39,7 +40,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -48,20 +49,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="00F8F4FF"/>
+        <bgColor rgb="00F8F4FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="009966CC"/>
+        <bgColor rgb="009966CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00E6E6FA"/>
+        <bgColor rgb="00E6E6FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8BFD8"/>
+        <bgColor rgb="00D8BFD8"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,19 +92,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -478,44 +485,44 @@
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>Round</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>start_time</t>
+          <t>Début</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>end_time</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>team1</t>
+          <t>Équipe 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>team2</t>
+          <t>Équipe 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>Durée</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>phase</t>
+          <t>Phase</t>
         </is>
       </c>
     </row>
